--- a/utility_code/readability_evaluation/Campaign Generator (Evaluation)/Library Level/Shake-spear Word.xlsx
+++ b/utility_code/readability_evaluation/Campaign Generator (Evaluation)/Library Level/Shake-spear Word.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
   <si>
     <t>id</t>
   </si>
@@ -31,292 +31,388 @@
     <t>relevance (R/I)</t>
   </si>
   <si>
-    <t>book a motel in montego, ca. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at hotel dubai plaza, paris. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a hotel near st andrews ane station. save up to 50% on your reservation.</t>
-  </si>
-  <si>
-    <t>book at the grand hotel marrid, manico. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at the brookland hotel and suites, san francisco. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at hotel carton barcelona, bangkok. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>find and compare exclusive deals on hotels in castana and save big!</t>
-  </si>
-  <si>
-    <t>book your hotel in barlinghom, mi. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a b&amp;b in ballington online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your barcelona hotel today!</t>
-  </si>
-  <si>
-    <t>book a b&amp;b in statton online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your casino hotel today!</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. save on hotels in marin, india.</t>
-  </si>
-  <si>
-    <t>book at hotel le marrakech, manchester. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at the grand hotel amazan, miami. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your caring hotel today!</t>
-  </si>
-  <si>
-    <t>best rates on casalona hotel and spa, paris. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book your hotel in columbia online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at hotel melbourne st petersburg, new york. no reservation costs. great rates!</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your colomado hotel today!</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your burlangham, ireland hotel today!</t>
-  </si>
-  <si>
-    <t>book a hotel near portland airport, landon. get instant confirmation.</t>
-  </si>
-  <si>
-    <t>book your hotel in columbus online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a motel in manchester ny. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book your hotel in castle cas online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a hotel near minter convention center. save up to 50% on your reservation.</t>
-  </si>
-  <si>
-    <t>book your hotel in carrow online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book your hotel in manis online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at hotel de manchester, london. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at the barlinghor hotel and spa, london. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a motel in castle convention center, ca. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at hotel colonado, marrakech. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a hotel in central barlin.</t>
-  </si>
-  <si>
-    <t>book at hotel de marina, barcelona. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at hotel du la menter, marrelech. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at the golder hotel, london. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book your hotel in castle co online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>best rates or refund +$50 coupon. book your carib bay hotel today!</t>
-  </si>
-  <si>
-    <t>book a hotel near manchester station. save up to 50% on your reservation.</t>
-  </si>
-  <si>
-    <t>book a hotel near palm springs, san francisco. get instant confirmation.</t>
-  </si>
-  <si>
-    <t>book at hotel castle rome, barcelona. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at hotel dubai rome, barcelona. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a hotel near port and suites, london. save up to 50% on your reservation.</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your burana hotel today!</t>
-  </si>
-  <si>
-    <t>book a hotel near port and suites, san francisco. save up to 50% on your reservation.</t>
-  </si>
-  <si>
-    <t>book at hotel de marro, miami beach. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>find and compare exclusive deals on hotels in casino and save big!</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your columbia hotel today!</t>
-  </si>
-  <si>
-    <t>best rates on hotel san diago. plan your next trip with expedia.</t>
-  </si>
-  <si>
-    <t>book a b&amp;b in brisban online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at the barch hotel, london. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a hotel in central derray. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at the grand hotel, london now</t>
-  </si>
-  <si>
-    <t>book a cheap hotel in manchester online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a hotel near port and spa, san francisco. save up to 50% on your reservation.</t>
-  </si>
-  <si>
-    <t>book at hotel ballington, barcelona. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a hotel near ponte park, london. save up to 50% on your reservation.</t>
-  </si>
-  <si>
-    <t>book your hotel in corona online</t>
-  </si>
-  <si>
-    <t>book at the grand hotel, wildwood beach. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a hotel near st and stadium. save up to 50% on your reservation.</t>
-  </si>
-  <si>
-    <t>find and compare exclusive deals on hotels in casino, minnesota and save big!</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your barlington hotel today!</t>
-  </si>
-  <si>
-    <t>book at harbour hotel &amp; suites, london. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at hotel de long millenni, miami. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a hotel near marches casino, san francisco. get instant confirmation.</t>
-  </si>
-  <si>
-    <t>best rates or refund + 550 coupon. book your casalana hotel today!</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your campa hotel today!</t>
-  </si>
-  <si>
-    <t>find and compare exclusive deals on hotels in manchester and save big!</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. save on hotels in santa berbar, india.</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your carisbury hotel today!</t>
-  </si>
-  <si>
-    <t>book at the gorden hotel, now york. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book your hotel in brightown nc online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book your hotel in bristal city mi online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a hotel near st parls save up to 50% on your reservation.</t>
-  </si>
-  <si>
-    <t>book your hotel in cortage online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book your hotel in carron ca online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at the bangkok hotel, london. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>find and compare exclusive deals on hotels in caribo and save big!</t>
-  </si>
-  <si>
-    <t>find and compare exclusive deals on hotels in colomano save big!</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your caris hotel today!</t>
-  </si>
-  <si>
-    <t>find and compare exclusive deals on hotels in manila and save big!</t>
-  </si>
-  <si>
-    <t>book at the greech hotel at castle resort, marino no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at the grand harbor hotel, london. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book your hotel in casa dubai online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your brussal hotel today!</t>
+    <t>book your hotel in belfast online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. save big on hotels in san juse.</t>
+  </si>
+  <si>
+    <t>best rates on hall palace hotel &amp; suites. plan your next trip with expedia.</t>
+  </si>
+  <si>
+    <t>book at the starlington hotel, london. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in bata online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in bellin mi online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in barcelona online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the lanch hotel and spa, killirn. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book a hotel near mintic square. save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>book at the stanion hotel, tel aviv. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in berlin, ma online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at hotel saint petic barcelona. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book a hotel near station stadion. save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>best rates on the san fronticon play your next trip with expedia.</t>
+  </si>
+  <si>
+    <t>best rates on hotel de la playa playa del carmen. plan your next trip with expedia.</t>
+  </si>
+  <si>
+    <t>book at the lending inn, new orleans. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the bella hotel, turket. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at hotel elee resort, miami beach. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. book your hotel in barcelona, ireland hotel today!</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. save on motels in sala beach, fl.</t>
+  </si>
+  <si>
+    <t>book your hotel in seaside ca online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in san francicco online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in bermington ny online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the stratton hotel, new york. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. save on hotels in banff, irada.</t>
+  </si>
+  <si>
+    <t>best rates on the sentia hotel. plan your next trip with expedia.</t>
+  </si>
+  <si>
+    <t>best price guarantee! best rates or refund + $50 coupon. save on hotels in san francisco, ca.</t>
+  </si>
+  <si>
+    <t>book a hotel near haka and save up to 50%. save on hotels in miami beach, fl.</t>
+  </si>
+  <si>
+    <t>book at the bangkok hotel, tokyo. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at hotel el carmel beach, marrakech. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in surat online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at hotel san diego south paris, malan. no reservation costs. great rates</t>
+  </si>
+  <si>
+    <t>book at the barcelona hotel, lincon. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the san antonio resort, cancun. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the strict hotel, london. no reservation costs. great rates.</t>
   </si>
   <si>
     <t>best rates or refund + $50 coupon. save big on hotels in san jose.</t>
   </si>
   <si>
-    <t>book your hotel in corta online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at the bridge hotel &amp; spa, singapore. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>best rates or refund + $50 coupon. book your cork condo hotel today!</t>
-  </si>
-  <si>
-    <t>book at hotel de marina, miami beach. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at the green hotel &amp; casino, las vegas. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book at the grand convention central hong kong. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book a hotel near palmas squere, san francisco. get instant confirmation.</t>
-  </si>
-  <si>
-    <t>book at hotel de minater, rome. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>find and compare exclusive deals on hotels in colomano, ca and save big!</t>
-  </si>
-  <si>
-    <t>book your hotel in colombia online. no reservation costs. great rates.</t>
+    <t>book a hotel near six flags center. save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>best rates on the santa cara resort. plan your next trip with expedia.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. book your south beach hotel today!</t>
+  </si>
+  <si>
+    <t>book at the starlin hotel &amp; suites, milan. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the santia hotel, miami. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>save with expedia's price guarantee. save on hotels in barcelona, mi.</t>
+  </si>
+  <si>
+    <t>book at the lancaster, milan. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book a hotel near harbor stadium, saint pori. save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>book at the strattor hotel, north beach. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in san francisco, ny online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book a hotel near singepore station. save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>book your hotel in bellavie wa online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the belfast hotel &amp; spa, salama city. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at hotel el zermark, sai francisco. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book a hotel near minghea station, london. save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>book at the bangkok hotel, lisbon. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at hotel excelsior cancn, canco. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the santa carino, bangkok. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. book your hotel in san juan today!</t>
+  </si>
+  <si>
+    <t>book at the san francisco atlenta, san francisco. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the san francisco hotel, london. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. save big on hotels in santa cana, ma.</t>
+  </si>
+  <si>
+    <t>book at hotel expedia price guarantee. book a package to california.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. book your hotel near singapore today!</t>
+  </si>
+  <si>
+    <t>best rates on the park hatel hotel. plan your next trip with expedia.</t>
+  </si>
+  <si>
+    <t>best rates on hotel cariso rome. plan your next trip with expedia.</t>
+  </si>
+  <si>
+    <t>book at the belley hotel, los angeles. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book a hotel near haka ant save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>best rates on the palmaria hotel. plan your next trip with expedia.</t>
+  </si>
+  <si>
+    <t>book a hotel near mintingar station, london. save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>book at the langkake hotel, tulum. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the london hotel, london. no reservation costs. great rates</t>
+  </si>
+  <si>
+    <t>find things to do in milmi beach, ma. save bit on toirs &amp; sightseeing!</t>
+  </si>
+  <si>
+    <t>book a hotel near haker street san diego city. save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>book your hotel near sin antonio airport. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. save on motels in barchana and save big!</t>
+  </si>
+  <si>
+    <t>book a hotel near st georgia airport, boston. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>the bangkak hotel in bangkok, near marina and fall-service spa.</t>
+  </si>
+  <si>
+    <t>book a b&amp;b in barcelona online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the belley hotel, miami beach. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in bathens online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. save on hotels in belling, india.</t>
+  </si>
+  <si>
+    <t>book at hotel el zago, rome. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the santa barbara, barcelona. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in berlin online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the beach resort &amp; spa, san francisco. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book a b&amp;b in stanbury online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the san francisco, new york. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the belleven hotel, miami beach. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the langkok hotel, london. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. book your hotel in san francisco, tx.</t>
+  </si>
+  <si>
+    <t>book at the salt beach hotel, london. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book a b&amp;b in bridgen online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the salina best hotel, london. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates on hotel cariso pleza. plan your next trip with expedia.</t>
+  </si>
+  <si>
+    <t>book at the lodge hotel at expedia. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. save on hotels in banff airport, ga.</t>
+  </si>
+  <si>
+    <t>book at hotel elee park, playa del carmen. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. save on hotels in barcelona, italy.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. book your san juse hotel today!</t>
+  </si>
+  <si>
+    <t>book a hotel near st germont ariza, montral. get instant confirmation.</t>
+  </si>
+  <si>
+    <t>book at the lake hotel, los angeles. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book a hotel near harbor park. save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>book a hotel near harlis airport. save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. book your hanging in hotel today!</t>
+  </si>
+  <si>
+    <t>book at hotel santa caral barcelona. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book a hotel near st george street. save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>secure value with expedias price guarantee. save on hotels in benidorm, mi.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. book your hotel in saint-martin co on expedia</t>
+  </si>
+  <si>
+    <t>book a hotel near harbour street. save up to 50% on your reservation.</t>
+  </si>
+  <si>
+    <t>save with expedia's price guarantee. save on hotels in san juse, ca.</t>
+  </si>
+  <si>
+    <t>book at the langkok hotel, tokoo. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. save on hotels in bangkok, minnesota.</t>
+  </si>
+  <si>
+    <t>book your hotel in bridgen online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. book your hotel near manala anrport today!</t>
+  </si>
+  <si>
+    <t>book at the longer hotel, london. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates on the park hotel &amp; costare. plan your next trip with expedia.</t>
+  </si>
+  <si>
+    <t>book at the belfast inn, new york. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the bangkak, key west. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. save big on hotels in singapore.</t>
+  </si>
+  <si>
+    <t>book your hotel in san francesco city centre. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in saint market ca online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the beach hotel &amp; suites, lake carme. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the london, london. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the starlotte hotel, london. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in barrelona online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>save with expedia's price guarantee. save on hotels in bellard, mi.</t>
+  </si>
+  <si>
+    <t>book at the belley hotel, london. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at hotel excel inn, saint jeru. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the stratford inn, san francisco. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book your hotel in suran online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book at the lodge and spa, san antonio. no reservation costs. great rates.</t>
   </si>
 </sst>
 </file>
@@ -447,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="7">
-        <v>44.3638372</v>
+        <v>47.230186</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="7">
-        <v>56.2590375</v>
+        <v>37.390016</v>
       </c>
     </row>
     <row r="4">
@@ -471,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>72.8945328</v>
+        <v>81.8239946</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>29.0636534</v>
+        <v>30.9607753</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>35.6705855</v>
+        <v>28.0497633</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>85.5933544</v>
+        <v>43.3867582</v>
       </c>
     </row>
     <row r="8">
@@ -519,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>35.6996256</v>
+        <v>35.9098343</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>30.8096432</v>
+        <v>30.1252646</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>38.9695831</v>
+        <v>41.864188</v>
       </c>
     </row>
     <row r="11">
@@ -555,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>54.8209633</v>
+        <v>49.1023644</v>
       </c>
     </row>
     <row r="12">
@@ -567,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="7">
-        <v>38.9695831</v>
+        <v>36.5151194</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>58.0821884</v>
+        <v>45.5457641</v>
       </c>
     </row>
     <row r="14">
@@ -591,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>35.5099809</v>
+        <v>50.7110361</v>
       </c>
     </row>
     <row r="15">
@@ -603,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="7">
-        <v>52.3008767</v>
+        <v>48.5626355</v>
       </c>
     </row>
     <row r="16">
@@ -615,7 +711,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>29.0636534</v>
+        <v>127.182805</v>
       </c>
     </row>
     <row r="17">
@@ -627,7 +723,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="7">
-        <v>47.0659023</v>
+        <v>35.166719</v>
       </c>
     </row>
     <row r="18">
@@ -639,7 +735,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>37.9301666</v>
+        <v>54.1357534</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>36.9245304</v>
+        <v>42.2187324</v>
       </c>
     </row>
     <row r="20">
@@ -663,7 +759,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>132.810957</v>
+        <v>42.1566073</v>
       </c>
     </row>
     <row r="21">
@@ -675,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="7">
-        <v>47.0659023</v>
+        <v>45.5412732</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +783,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="7">
-        <v>60.2161787</v>
+        <v>48.3993415</v>
       </c>
     </row>
     <row r="23">
@@ -699,7 +795,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>80.5750828</v>
+        <v>35.0839191</v>
       </c>
     </row>
     <row r="24">
@@ -711,7 +807,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="7">
-        <v>46.5478463</v>
+        <v>42.407846</v>
       </c>
     </row>
     <row r="25">
@@ -723,7 +819,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="7">
-        <v>60.7881086</v>
+        <v>35.166719</v>
       </c>
     </row>
     <row r="26">
@@ -735,7 +831,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="7">
-        <v>79.2097679</v>
+        <v>31.5453149</v>
       </c>
     </row>
     <row r="27">
@@ -747,7 +843,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="7">
-        <v>47.5342389</v>
+        <v>43.393527</v>
       </c>
     </row>
     <row r="28">
@@ -759,7 +855,7 @@
         <v>32</v>
       </c>
       <c r="D28" s="7">
-        <v>30.8096432</v>
+        <v>41.9557483</v>
       </c>
     </row>
     <row r="29">
@@ -771,7 +867,7 @@
         <v>33</v>
       </c>
       <c r="D29" s="7">
-        <v>30.8096432</v>
+        <v>41.3347208</v>
       </c>
     </row>
     <row r="30">
@@ -783,7 +879,7 @@
         <v>34</v>
       </c>
       <c r="D30" s="7">
-        <v>53.0714229</v>
+        <v>38.1461562</v>
       </c>
     </row>
     <row r="31">
@@ -795,7 +891,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="7">
-        <v>33.6641624</v>
+        <v>66.209351</v>
       </c>
     </row>
     <row r="32">
@@ -807,7 +903,7 @@
         <v>36</v>
       </c>
       <c r="D32" s="7">
-        <v>69.6629015</v>
+        <v>26.410357</v>
       </c>
     </row>
     <row r="33">
@@ -819,7 +915,7 @@
         <v>37</v>
       </c>
       <c r="D33" s="7">
-        <v>38.4108813</v>
+        <v>41.0820735</v>
       </c>
     </row>
     <row r="34">
@@ -831,7 +927,7 @@
         <v>38</v>
       </c>
       <c r="D34" s="7">
-        <v>49.3735859</v>
+        <v>39.6365665</v>
       </c>
     </row>
     <row r="35">
@@ -843,7 +939,7 @@
         <v>39</v>
       </c>
       <c r="D35" s="7">
-        <v>53.0714229</v>
+        <v>53.4457689</v>
       </c>
     </row>
     <row r="36">
@@ -855,7 +951,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="7">
-        <v>73.240331</v>
+        <v>30.9607753</v>
       </c>
     </row>
     <row r="37">
@@ -867,7 +963,7 @@
         <v>41</v>
       </c>
       <c r="D37" s="7">
-        <v>33.5929379</v>
+        <v>37.390016</v>
       </c>
     </row>
     <row r="38">
@@ -879,7 +975,7 @@
         <v>42</v>
       </c>
       <c r="D38" s="7">
-        <v>46.4569562</v>
+        <v>82.7744611</v>
       </c>
     </row>
     <row r="39">
@@ -888,10 +984,10 @@
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D39" s="7">
-        <v>65.1663832</v>
+        <v>35.9098343</v>
       </c>
     </row>
     <row r="40">
@@ -900,10 +996,10 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="7">
-        <v>48.0153997</v>
+        <v>47.5261674</v>
       </c>
     </row>
     <row r="41">
@@ -912,10 +1008,10 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="7">
-        <v>95.8852486</v>
+        <v>41.1124378</v>
       </c>
     </row>
     <row r="42">
@@ -924,10 +1020,10 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="7">
-        <v>48.6856791</v>
+        <v>34.9555962</v>
       </c>
     </row>
     <row r="43">
@@ -936,10 +1032,10 @@
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="7">
-        <v>56.2590375</v>
+        <v>30.9607753</v>
       </c>
     </row>
     <row r="44">
@@ -948,10 +1044,10 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="7">
-        <v>45.6010018</v>
+        <v>42.4304719</v>
       </c>
     </row>
     <row r="45">
@@ -960,10 +1056,10 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="7">
-        <v>47.0659023</v>
+        <v>27.5355028</v>
       </c>
     </row>
     <row r="46">
@@ -972,10 +1068,10 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="7">
-        <v>47.0691217</v>
+        <v>78.7247268</v>
       </c>
     </row>
     <row r="47">
@@ -984,10 +1080,10 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" s="7">
-        <v>69.2222755</v>
+        <v>44.0676643</v>
       </c>
     </row>
     <row r="48">
@@ -996,10 +1092,10 @@
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="7">
-        <v>44.0555111</v>
+        <v>50.5057486</v>
       </c>
     </row>
     <row r="49">
@@ -1008,10 +1104,10 @@
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="7">
-        <v>55.5625721</v>
+        <v>41.864188</v>
       </c>
     </row>
     <row r="50">
@@ -1020,10 +1116,10 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="7">
-        <v>63.5614571</v>
+        <v>35.7541769</v>
       </c>
     </row>
     <row r="51">
@@ -1032,10 +1128,10 @@
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="7">
-        <v>38.9695831</v>
+        <v>56.7443082</v>
       </c>
     </row>
     <row r="52">
@@ -1044,10 +1140,10 @@
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="7">
-        <v>33.5929379</v>
+        <v>42.5826649</v>
       </c>
     </row>
     <row r="53">
@@ -1056,10 +1152,10 @@
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D53" s="7">
-        <v>58.0821884</v>
+        <v>44.5506361</v>
       </c>
     </row>
     <row r="54">
@@ -1071,7 +1167,7 @@
         <v>57</v>
       </c>
       <c r="D54" s="7">
-        <v>40.99928</v>
+        <v>38.1461562</v>
       </c>
     </row>
     <row r="55">
@@ -1080,10 +1176,10 @@
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D55" s="7">
-        <v>54.8209633</v>
+        <v>48.7440244</v>
       </c>
     </row>
     <row r="56">
@@ -1092,10 +1188,10 @@
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56" s="7">
-        <v>48.443199</v>
+        <v>31.9552005</v>
       </c>
     </row>
     <row r="57">
@@ -1104,10 +1200,10 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D57" s="7">
-        <v>51.744015</v>
+        <v>47.6930763</v>
       </c>
     </row>
     <row r="58">
@@ -1116,10 +1212,10 @@
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58" s="7">
-        <v>47.0691217</v>
+        <v>59.0084123</v>
       </c>
     </row>
     <row r="59">
@@ -1128,10 +1224,10 @@
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D59" s="7">
-        <v>38.4108813</v>
+        <v>50.1938402</v>
       </c>
     </row>
     <row r="60">
@@ -1140,10 +1236,10 @@
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D60" s="7">
-        <v>65.4337984</v>
+        <v>37.1850755</v>
       </c>
     </row>
     <row r="61">
@@ -1152,10 +1248,10 @@
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D61" s="7">
-        <v>74.4322164</v>
+        <v>43.0393947</v>
       </c>
     </row>
     <row r="62">
@@ -1164,10 +1260,10 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D62" s="7">
-        <v>46.6696345</v>
+        <v>53.0482527</v>
       </c>
     </row>
     <row r="63">
@@ -1176,10 +1272,10 @@
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D63" s="7">
-        <v>46.9353851</v>
+        <v>50.7548353</v>
       </c>
     </row>
     <row r="64">
@@ -1188,10 +1284,10 @@
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D64" s="7">
-        <v>56.7029756</v>
+        <v>45.9973897</v>
       </c>
     </row>
     <row r="65">
@@ -1200,10 +1296,10 @@
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D65" s="7">
-        <v>47.0659023</v>
+        <v>44.1445414</v>
       </c>
     </row>
     <row r="66">
@@ -1212,10 +1308,10 @@
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D66" s="7">
-        <v>47.0254745</v>
+        <v>41.864188</v>
       </c>
     </row>
     <row r="67">
@@ -1224,10 +1320,10 @@
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D67" s="7">
-        <v>70.1832798</v>
+        <v>43.393527</v>
       </c>
     </row>
     <row r="68">
@@ -1236,10 +1332,10 @@
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D68" s="7">
-        <v>80.7287779</v>
+        <v>44.5506361</v>
       </c>
     </row>
     <row r="69">
@@ -1248,10 +1344,10 @@
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D69" s="7">
-        <v>47.0659023</v>
+        <v>30.9607753</v>
       </c>
     </row>
     <row r="70">
@@ -1260,10 +1356,10 @@
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D70" s="7">
-        <v>47.0659023</v>
+        <v>23.8147979</v>
       </c>
     </row>
     <row r="71">
@@ -1272,10 +1368,10 @@
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D71" s="7">
-        <v>47.6490298</v>
+        <v>80.7489089</v>
       </c>
     </row>
     <row r="72">
@@ -1284,10 +1380,10 @@
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D72" s="7">
-        <v>47.1310519</v>
+        <v>73.5578996</v>
       </c>
     </row>
     <row r="73">
@@ -1296,10 +1392,10 @@
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D73" s="7">
-        <v>46.4569562</v>
+        <v>57.9183255</v>
       </c>
     </row>
     <row r="74">
@@ -1308,10 +1404,10 @@
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D74" s="7">
-        <v>47.0659023</v>
+        <v>40.896615</v>
       </c>
     </row>
     <row r="75">
@@ -1320,10 +1416,10 @@
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D75" s="7">
-        <v>80.2920428</v>
+        <v>55.0564082</v>
       </c>
     </row>
     <row r="76">
@@ -1332,10 +1428,10 @@
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D76" s="7">
-        <v>43.6313976</v>
+        <v>62.8420331</v>
       </c>
     </row>
     <row r="77">
@@ -1344,10 +1440,10 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D77" s="7">
-        <v>44.9665396</v>
+        <v>36.3989111</v>
       </c>
     </row>
     <row r="78">
@@ -1356,10 +1452,10 @@
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D78" s="7">
-        <v>45.0092584</v>
+        <v>39.8287754</v>
       </c>
     </row>
     <row r="79">
@@ -1368,10 +1464,10 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D79" s="7">
-        <v>30.8096432</v>
+        <v>28.0497633</v>
       </c>
     </row>
     <row r="80">
@@ -1380,10 +1476,10 @@
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D80" s="7">
-        <v>38.901397</v>
+        <v>31.5453149</v>
       </c>
     </row>
     <row r="81">
@@ -1392,10 +1488,10 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D81" s="7">
-        <v>35.5990952</v>
+        <v>39.4027679</v>
       </c>
     </row>
     <row r="82">
@@ -1404,10 +1500,10 @@
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D82" s="7">
-        <v>35.6996256</v>
+        <v>31.9552005</v>
       </c>
     </row>
     <row r="83">
@@ -1416,10 +1512,10 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D83" s="7">
-        <v>33.1400358</v>
+        <v>37.2408804</v>
       </c>
     </row>
     <row r="84">
@@ -1428,10 +1524,10 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D84" s="7">
-        <v>47.0659023</v>
+        <v>49.4636941</v>
       </c>
     </row>
     <row r="85">
@@ -1440,10 +1536,10 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D85" s="7">
-        <v>50.1302969</v>
+        <v>28.4317893</v>
       </c>
     </row>
     <row r="86">
@@ -1452,10 +1548,10 @@
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D86" s="7">
-        <v>70.7779764</v>
+        <v>39.5644243</v>
       </c>
     </row>
     <row r="87">
@@ -1464,10 +1560,10 @@
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D87" s="7">
-        <v>46.8808846</v>
+        <v>39.8287754</v>
       </c>
     </row>
     <row r="88">
@@ -1476,10 +1572,10 @@
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D88" s="7">
-        <v>66.0646693</v>
+        <v>30.9607753</v>
       </c>
     </row>
     <row r="89">
@@ -1488,10 +1584,10 @@
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D89" s="7">
-        <v>47.0659023</v>
+        <v>38.3687821</v>
       </c>
     </row>
     <row r="90">
@@ -1500,10 +1596,10 @@
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D90" s="7">
-        <v>34.9802665</v>
+        <v>43.5271153</v>
       </c>
     </row>
     <row r="91">
@@ -1512,10 +1608,10 @@
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D91" s="7">
-        <v>30.8096432</v>
+        <v>28.4317893</v>
       </c>
     </row>
     <row r="92">
@@ -1524,10 +1620,10 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="6" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D92" s="7">
-        <v>58.0821884</v>
+        <v>30.4426271</v>
       </c>
     </row>
     <row r="93">
@@ -1536,10 +1632,10 @@
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D93" s="7">
-        <v>36.5322765</v>
+        <v>45.9973897</v>
       </c>
     </row>
     <row r="94">
@@ -1548,10 +1644,10 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D94" s="7">
-        <v>87.0392364</v>
+        <v>28.8208942</v>
       </c>
     </row>
     <row r="95">
@@ -1560,10 +1656,10 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D95" s="7">
-        <v>69.2222755</v>
+        <v>53.6521426</v>
       </c>
     </row>
     <row r="96">
@@ -1572,158 +1668,385 @@
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D96" s="7">
-        <v>40.6045392</v>
+        <v>62.3460968</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4">
         <v>96.0</v>
       </c>
-      <c r="B97" s="5"/>
       <c r="C97" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D97" s="7">
-        <v>67.803289</v>
+        <v>31.5453149</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="4">
         <v>97.0</v>
       </c>
-      <c r="B98" s="5"/>
       <c r="C98" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D98" s="7">
-        <v>123.93228</v>
+        <v>45.9138998</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4">
         <v>98.0</v>
       </c>
-      <c r="B99" s="5"/>
       <c r="C99" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D99" s="7">
-        <v>53.0714229</v>
+        <v>105.091995</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4">
         <v>99.0</v>
       </c>
-      <c r="B100" s="5"/>
       <c r="C100" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D100" s="7">
-        <v>43.7754105</v>
+        <v>50.7147004</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4">
         <v>100.0</v>
       </c>
-      <c r="B101" s="5"/>
       <c r="C101" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D101" s="7">
-        <v>44.8944337</v>
+        <v>57.7622002</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="4"/>
+      <c r="A102" s="4">
+        <v>101.0</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="7">
+        <v>41.864188</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="4"/>
+      <c r="A103" s="4">
+        <v>102.0</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="7">
+        <v>31.9697844</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="4"/>
+      <c r="A104" s="4">
+        <v>103.0</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="7">
+        <v>34.0526199</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="4"/>
+      <c r="A105" s="4">
+        <v>104.0</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="7">
+        <v>69.4402955</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="4"/>
+      <c r="A106" s="4">
+        <v>105.0</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="7">
+        <v>77.4183037</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="4"/>
+      <c r="A107" s="4">
+        <v>106.0</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="7">
+        <v>39.8324655</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="4"/>
+      <c r="A108" s="4">
+        <v>107.0</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="7">
+        <v>56.6424197</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="4"/>
+      <c r="A109" s="4">
+        <v>108.0</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="7">
+        <v>51.2716987</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="4"/>
+      <c r="A110" s="4">
+        <v>109.0</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="7">
+        <v>30.9607753</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="4"/>
+      <c r="A111" s="4">
+        <v>110.0</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" s="7">
+        <v>31.5453149</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="4"/>
+      <c r="A112" s="4">
+        <v>111.0</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" s="7">
+        <v>28.0497633</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="4"/>
+      <c r="A113" s="4">
+        <v>112.0</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" s="7">
+        <v>44.4209742</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="4"/>
+      <c r="A114" s="4">
+        <v>113.0</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="7">
+        <v>30.9607753</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="4"/>
+      <c r="A115" s="4">
+        <v>114.0</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="7">
+        <v>50.4328874</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="4"/>
+      <c r="A116" s="4">
+        <v>115.0</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="7">
+        <v>56.6976119</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="4"/>
+      <c r="A117" s="4">
+        <v>116.0</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" s="7">
+        <v>40.465574</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="4"/>
+      <c r="A118" s="4">
+        <v>117.0</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="7">
+        <v>31.0923885</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="4"/>
+      <c r="A119" s="4">
+        <v>118.0</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="7">
+        <v>41.8834658</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="4"/>
+      <c r="A120" s="4">
+        <v>119.0</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="7">
+        <v>68.1405479</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="4"/>
+      <c r="A121" s="4">
+        <v>120.0</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" s="7">
+        <v>42.1237107</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="4"/>
+      <c r="A122" s="4">
+        <v>121.0</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" s="7">
+        <v>27.5355028</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="4"/>
+      <c r="A123" s="4">
+        <v>122.0</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123" s="7">
+        <v>30.9607753</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="4"/>
+      <c r="A124" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" s="7">
+        <v>28.0497633</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="4"/>
+      <c r="A125" s="4">
+        <v>124.0</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125" s="7">
+        <v>42.4304719</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="4"/>
+      <c r="A126" s="4">
+        <v>125.0</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126" s="7">
+        <v>30.9607753</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="4"/>
+      <c r="A127" s="4">
+        <v>126.0</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D127" s="7">
+        <v>66.3477158</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="4"/>
+      <c r="A128" s="4">
+        <v>127.0</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="7">
+        <v>52.9850094</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="4"/>
+      <c r="A129" s="4">
+        <v>128.0</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129" s="7">
+        <v>28.0497633</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="4"/>
+      <c r="A130" s="4">
+        <v>129.0</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130" s="7">
+        <v>41.1655181</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
@@ -1873,64 +2196,64 @@
       <c r="A179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="4"/>
+      <c r="A180" s="8"/>
     </row>
     <row r="181">
-      <c r="A181" s="4"/>
+      <c r="A181" s="8"/>
     </row>
     <row r="182">
-      <c r="A182" s="4"/>
+      <c r="A182" s="8"/>
     </row>
     <row r="183">
-      <c r="A183" s="4"/>
+      <c r="A183" s="8"/>
     </row>
     <row r="184">
-      <c r="A184" s="4"/>
+      <c r="A184" s="8"/>
     </row>
     <row r="185">
-      <c r="A185" s="4"/>
+      <c r="A185" s="8"/>
     </row>
     <row r="186">
-      <c r="A186" s="4"/>
+      <c r="A186" s="8"/>
     </row>
     <row r="187">
-      <c r="A187" s="4"/>
+      <c r="A187" s="8"/>
     </row>
     <row r="188">
-      <c r="A188" s="4"/>
+      <c r="A188" s="8"/>
     </row>
     <row r="189">
-      <c r="A189" s="4"/>
+      <c r="A189" s="8"/>
     </row>
     <row r="190">
-      <c r="A190" s="4"/>
+      <c r="A190" s="8"/>
     </row>
     <row r="191">
-      <c r="A191" s="4"/>
+      <c r="A191" s="8"/>
     </row>
     <row r="192">
-      <c r="A192" s="4"/>
+      <c r="A192" s="8"/>
     </row>
     <row r="193">
-      <c r="A193" s="4"/>
+      <c r="A193" s="8"/>
     </row>
     <row r="194">
-      <c r="A194" s="4"/>
+      <c r="A194" s="8"/>
     </row>
     <row r="195">
-      <c r="A195" s="4"/>
+      <c r="A195" s="8"/>
     </row>
     <row r="196">
-      <c r="A196" s="4"/>
+      <c r="A196" s="8"/>
     </row>
     <row r="197">
-      <c r="A197" s="4"/>
+      <c r="A197" s="8"/>
     </row>
     <row r="198">
-      <c r="A198" s="4"/>
+      <c r="A198" s="8"/>
     </row>
     <row r="199">
-      <c r="A199" s="4"/>
+      <c r="A199" s="8"/>
     </row>
     <row r="200">
       <c r="A200" s="8"/>
@@ -4271,66 +4594,6 @@
     </row>
     <row r="979">
       <c r="A979" s="8"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="8"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="8"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="8"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="8"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="8"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="8"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="8"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="8"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="8"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="8"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="8"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="8"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="8"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="8"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="8"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="8"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="8"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="8"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="8"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
